--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_40_3.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_40_3.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999594379643458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991670370025065</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9998763941586374</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.999928307468444</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9999238206699052</v>
       </c>
       <c r="G2" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>3.786287981557749e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0007775343953103307</v>
       </c>
       <c r="I2" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>4.214893906866974e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001104127996947931</v>
+        <v>2.644061338244595e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>3.429374462660315e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004928679307567712</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.006153282036082654</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000029499662294</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.006415239991408492</v>
       </c>
       <c r="P2" t="n">
-        <v>135.4931009932421</v>
+        <v>134.3630787004329</v>
       </c>
       <c r="Q2" t="n">
-        <v>204.9690230107295</v>
+        <v>203.8390007179204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_22</t>
+          <t>model_40_3_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999641764062493</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991560723141595</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9998625884840444</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999329217780503</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9999204797838989</v>
       </c>
       <c r="G3" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>3.343975229219063e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0007877694505880547</v>
       </c>
       <c r="I3" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>4.685660118889341e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001104127996947931</v>
+        <v>2.473882975619705e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>3.579771547254523e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.000470692192563598</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005782711499996401</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000026053522728</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.006028893500414288</v>
       </c>
       <c r="P3" t="n">
-        <v>135.4931009932421</v>
+        <v>134.6115303546108</v>
       </c>
       <c r="Q3" t="n">
-        <v>204.9690230107295</v>
+        <v>204.0874523720982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_21</t>
+          <t>model_40_3_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999679672229898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991455273119026</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9998495829807331</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999366680509287</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9999170904667458</v>
       </c>
       <c r="G4" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.990119126262822e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0007976127473227754</v>
       </c>
       <c r="I4" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>5.129140912822393e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001104127996947931</v>
+        <v>2.335718301201706e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>3.73234886285747e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004501855470033231</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.00546819817331342</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000023296565098</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005700990690282071</v>
       </c>
       <c r="P4" t="n">
-        <v>135.4931009932421</v>
+        <v>134.8352244736036</v>
       </c>
       <c r="Q4" t="n">
-        <v>204.9690230107295</v>
+        <v>204.3111464910911</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_20</t>
+          <t>model_40_3_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999709806954084</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991354177172278</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.999837363711612</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999396678363696</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9999136895574794</v>
       </c>
       <c r="G5" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.708824703608383e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008070496101918188</v>
       </c>
       <c r="I5" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>5.545811536128631e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001104127996947931</v>
+        <v>2.225084508043167e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>3.885448022085899e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004313302793125407</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005204637070544288</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000021104948794</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005426209245721361</v>
       </c>
       <c r="P5" t="n">
-        <v>135.4931009932421</v>
+        <v>135.0328212257083</v>
       </c>
       <c r="Q5" t="n">
-        <v>204.9690230107295</v>
+        <v>204.5087432431957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_19</t>
+          <t>model_40_3_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999733680989688</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991258566699166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9998259823941462</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.999942072168152</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9999103612674346</v>
       </c>
       <c r="G6" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.485971060734557e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008159744281753497</v>
       </c>
       <c r="I6" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>5.933908450561371e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001104127996947931</v>
+        <v>2.136411384465478e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>4.035278072702789e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004139450377806195</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004985951324205398</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000019368655295</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005198213594418923</v>
       </c>
       <c r="P6" t="n">
-        <v>135.4931009932421</v>
+        <v>135.2045242256893</v>
       </c>
       <c r="Q6" t="n">
-        <v>204.9690230107295</v>
+        <v>204.6804462431767</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_18</t>
+          <t>model_40_3_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999752438877564</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991168384700272</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9998154255070288</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999439944948298</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9999071530276783</v>
       </c>
       <c r="G7" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.3108744111689e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008243925219188947</v>
       </c>
       <c r="I7" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>6.293892725544391e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001104127996947931</v>
+        <v>2.06551488328419e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>4.179703804414291e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003980204124130429</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004807155511494194</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000018004445268</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005011806073802246</v>
       </c>
       <c r="P7" t="n">
-        <v>135.4931009932421</v>
+        <v>135.350598958177</v>
       </c>
       <c r="Q7" t="n">
-        <v>204.9690230107295</v>
+        <v>204.8265209756644</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_17</t>
+          <t>model_40_3_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999767067161089</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.999108368627919</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9998056536771287</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999455120802623</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9999040737015149</v>
       </c>
       <c r="G8" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.174325805527736e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008322987477438167</v>
       </c>
       <c r="I8" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>6.627106964054893e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001104127996947931</v>
+        <v>2.009545469422648e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>4.31832621673877e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003834684127539772</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004662966658177749</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000016940570102</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004861478802488046</v>
       </c>
       <c r="P8" t="n">
-        <v>135.4931009932421</v>
+        <v>135.4724136459032</v>
       </c>
       <c r="Q8" t="n">
-        <v>204.9690230107295</v>
+        <v>204.9483356633906</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_16</t>
+          <t>model_40_3_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999778353861909</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9991004800163868</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9997966016387572</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999467091954559</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9999011357147435</v>
       </c>
       <c r="G9" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.068969407671131e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008396624203390136</v>
       </c>
       <c r="I9" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>6.935776691603672e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001104127996947931</v>
+        <v>1.965395180232694e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>4.450585935918183e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003701642102122108</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004548592537995826</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000016119719134</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004742235539222912</v>
       </c>
       <c r="P9" t="n">
-        <v>135.4931009932421</v>
+        <v>135.571749704724</v>
       </c>
       <c r="Q9" t="n">
-        <v>204.9690230107295</v>
+        <v>205.0476717222114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_15</t>
+          <t>model_40_3_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999786994649805</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990931488437198</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9997883051384813</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.999947645225146</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9998983769316415</v>
       </c>
       <c r="G10" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.988311445526048e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008465057482223608</v>
       </c>
       <c r="I10" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>7.218682969137096e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001104127996947931</v>
+        <v>1.930873872902778e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>4.574778421019937e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003580288408133025</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004459048604272047</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000015491298196</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004648879534859014</v>
       </c>
       <c r="P10" t="n">
-        <v>135.4931009932421</v>
+        <v>135.6512794125334</v>
       </c>
       <c r="Q10" t="n">
-        <v>204.9690230107295</v>
+        <v>205.1272014300208</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_14</t>
+          <t>model_40_3_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999793516366271</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990863679137609</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9997806986165848</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999483768286448</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9998957957314477</v>
       </c>
       <c r="G11" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.927434085024996e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000852835448690532</v>
       </c>
       <c r="I11" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>7.478061348347253e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001104127996947931</v>
+        <v>1.903891919776384e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>4.690976634061819e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003470148331403048</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004390255214705627</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000015016991544</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004577157468276805</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4931009932421</v>
+        <v>135.7134716724664</v>
       </c>
       <c r="Q11" t="n">
-        <v>204.9690230107295</v>
+        <v>205.1893936899538</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_13</t>
+          <t>model_40_3_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999798371118402</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990801212983151</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9997737445183076</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999489451874598</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9998933976635511</v>
       </c>
       <c r="G12" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.882117104867341e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008586663900145201</v>
       </c>
       <c r="I12" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>7.715192426730174e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001104127996947931</v>
+        <v>1.882930523430322e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>4.798930757495314e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003369702516374938</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004338337359942563</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000014663918662</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.0045230293629517</v>
       </c>
       <c r="P12" t="n">
-        <v>135.4931009932421</v>
+        <v>135.7610564042303</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.9690230107295</v>
+        <v>205.2369784217177</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_23</t>
+          <t>model_40_3_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999801901680058</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990743764728894</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.999767404132427</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999493741311128</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9998911691165605</v>
       </c>
       <c r="G13" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.84916086154824e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008640289323806808</v>
       </c>
       <c r="I13" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>7.931396236520203e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001104127996947931</v>
+        <v>1.867110837547705e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>4.899253537033954e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.000327834092903432</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004300187044243819</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000014407150541</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004483254909331621</v>
       </c>
       <c r="P13" t="n">
-        <v>135.4931009932421</v>
+        <v>135.7963870342692</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.9690230107295</v>
+        <v>205.2723090517567</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999804403551009</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990690972267797</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9997616465850915</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999496974926343</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9998891202479389</v>
       </c>
       <c r="G14" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.8258069944159e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008689568768919566</v>
       </c>
       <c r="I14" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>8.12772555976116e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001104127996947931</v>
+        <v>1.855185080726712e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>4.991487712886636e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.000319562505068967</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004272946283790495</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001422519629</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004454854453309651</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4931009932421</v>
+        <v>135.8218067739027</v>
       </c>
       <c r="Q14" t="n">
-        <v>204.9690230107295</v>
+        <v>205.2977287913901</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_10</t>
+          <t>model_40_3_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999806068585381</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990642616911445</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9997563571989626</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999499319183397</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9998872136986773</v>
       </c>
       <c r="G15" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.810264629422941e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008734706371520421</v>
       </c>
       <c r="I15" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>8.308090833115549e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001104127996947931</v>
+        <v>1.846539327384247e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>5.077315080249898e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.000312075797206144</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004254720471926376</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000014104102881</v>
       </c>
       <c r="O15" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004435852730901846</v>
       </c>
       <c r="P15" t="n">
-        <v>135.4931009932421</v>
+        <v>135.8389048525564</v>
       </c>
       <c r="Q15" t="n">
-        <v>204.9690230107295</v>
+        <v>205.3148268700438</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_9</t>
+          <t>model_40_3_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.99998071506583</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990598479891486</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9997516113159907</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999501090727642</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9998854888157006</v>
       </c>
       <c r="G16" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.800163953698698e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008775906342259846</v>
       </c>
       <c r="I16" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>8.469922935875075e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001104127996947931</v>
+        <v>1.840005771457582e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>5.154964353666328e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003052641836334645</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004242833904006493</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000014025406669</v>
       </c>
       <c r="O16" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004423460127177025</v>
       </c>
       <c r="P16" t="n">
-        <v>135.4931009932421</v>
+        <v>135.8500954376559</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.9690230107295</v>
+        <v>205.3260174551434</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_8</t>
+          <t>model_40_3_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999807715736905</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990558160968984</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9997472460779189</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999502277096408</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.999883884127311</v>
       </c>
       <c r="G17" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.794889192960848e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008813542286619738</v>
       </c>
       <c r="I17" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>8.618775248579247e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001104127996947931</v>
+        <v>1.835630375972762e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>5.227202812276004e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002991226453678423</v>
       </c>
       <c r="M17" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004236613261746756</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000013984310043</v>
       </c>
       <c r="O17" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004416974659297784</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4931009932421</v>
+        <v>135.8559643517529</v>
       </c>
       <c r="Q17" t="n">
-        <v>204.9690230107295</v>
+        <v>205.3318863692403</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_7</t>
+          <t>model_40_3_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999807925460525</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990521433499473</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9997432888966401</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999503086449867</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9998824191075237</v>
       </c>
       <c r="G18" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.79293151501466e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008847825767258691</v>
       </c>
       <c r="I18" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>8.753713040165155e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001104127996947931</v>
+        <v>1.832645434385303e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>5.293153791882378e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002935607425176823</v>
       </c>
       <c r="M18" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004234302203450599</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000013969057416</v>
       </c>
       <c r="O18" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004414565214465411</v>
       </c>
       <c r="P18" t="n">
-        <v>135.4931009932421</v>
+        <v>135.8581469336597</v>
       </c>
       <c r="Q18" t="n">
-        <v>204.9690230107295</v>
+        <v>205.3340689511471</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_6</t>
+          <t>model_40_3_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999807868831377</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990488014362797</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9997397118312122</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999503531564314</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9998810820016568</v>
       </c>
       <c r="G19" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.79346012325495e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000887902106441446</v>
       </c>
       <c r="I19" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>8.875689081993247e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001104127996947931</v>
+        <v>1.831003826985416e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>5.353346454489331e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002885295183636885</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004234926355032576</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000016766245506</v>
+        <v>1.0000139731759</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004415215937472405</v>
       </c>
       <c r="P19" t="n">
-        <v>135.4931009932421</v>
+        <v>135.8575573625281</v>
       </c>
       <c r="Q19" t="n">
-        <v>204.9690230107295</v>
+        <v>205.3334793800155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_5</t>
+          <t>model_40_3_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999807610606319</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990457651847267</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9997364602474966</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999503774629911</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9998798604571179</v>
       </c>
       <c r="G20" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.795870540827247e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008907363139901926</v>
       </c>
       <c r="I20" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>8.986566369340612e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001104127996947931</v>
+        <v>1.830107387241731e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>5.408336878291171e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002839877007754846</v>
       </c>
       <c r="M20" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004237771278428376</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000013991955904</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004418181975146968</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4931009932421</v>
+        <v>135.854871159266</v>
       </c>
       <c r="Q20" t="n">
-        <v>204.9690230107295</v>
+        <v>205.3307931767534</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_4</t>
+          <t>model_40_3_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999807214596884</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990430080825403</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9997335198240006</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.99995038118888</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9998787483306303</v>
       </c>
       <c r="G21" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.799567115076447e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008933099478583795</v>
       </c>
       <c r="I21" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>9.086833257541392e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001104127996947931</v>
+        <v>1.829969974341614e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>5.458401615941503e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002798923248015652</v>
       </c>
       <c r="M21" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004242130496668445</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001402075659</v>
       </c>
       <c r="O21" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004422726774332342</v>
       </c>
       <c r="P21" t="n">
-        <v>135.4931009932421</v>
+        <v>135.8507586412301</v>
       </c>
       <c r="Q21" t="n">
-        <v>204.9690230107295</v>
+        <v>205.3266806587175</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_3</t>
+          <t>model_40_3_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999806732747001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990405069246958</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9997308679741167</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999503749250248</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9998777414061101</v>
       </c>
       <c r="G22" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.804064972226884e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008956446689180584</v>
       </c>
       <c r="I22" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>9.177259937982583e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001104127996947931</v>
+        <v>1.830200988880354e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>5.503730463431468e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002761827794998408</v>
       </c>
       <c r="M22" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004247428601197299</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000014055800218</v>
       </c>
       <c r="O22" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004428250430139577</v>
       </c>
       <c r="P22" t="n">
-        <v>135.4931009932421</v>
+        <v>135.845766056663</v>
       </c>
       <c r="Q22" t="n">
-        <v>204.9690230107295</v>
+        <v>205.3216880741504</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_2</t>
+          <t>model_40_3_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.999980618589711</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990382374116237</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9997284599114029</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999503616104047</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9998768270347561</v>
       </c>
       <c r="G23" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.809169575922961e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008977631597508059</v>
       </c>
       <c r="I23" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>9.259373604682622e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001104127996947931</v>
+        <v>1.830692039641763e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>5.544892833415643e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002728451856439124</v>
       </c>
       <c r="M23" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.0042534334083455</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000014095571119</v>
       </c>
       <c r="O23" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004434510874359742</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4931009932421</v>
+        <v>135.8401150456101</v>
       </c>
       <c r="Q23" t="n">
-        <v>204.9690230107295</v>
+        <v>205.3160370630975</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_1</t>
+          <t>model_40_3_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.999980560896277</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990361838175117</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.999726293392431</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999503381347159</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9998759937637942</v>
       </c>
       <c r="G24" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.814555004737146e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008996800997119724</v>
       </c>
       <c r="I24" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>9.333250757355223e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001104127996947931</v>
+        <v>1.831557836397638e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>5.582404296876432e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002698319271669274</v>
       </c>
       <c r="M24" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.00425975938843633</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001413752998</v>
       </c>
       <c r="O24" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004441106164519623</v>
       </c>
       <c r="P24" t="n">
-        <v>135.4931009932421</v>
+        <v>135.8341704075349</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.9690230107295</v>
+        <v>205.3100924250223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_40_3_11</t>
+          <t>model_40_3_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999805001133623</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990343222399372</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9997243142424536</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999503003002641</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9998752294516777</v>
       </c>
       <c r="G25" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.820228823022006e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0009014178006640176</v>
       </c>
       <c r="I25" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>9.40073872628153e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001104127996947931</v>
+        <v>1.832953192497597e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>5.616811431335648e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002671177013172827</v>
       </c>
       <c r="M25" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004266413977829632</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000014181735737</v>
       </c>
       <c r="O25" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004448044053560296</v>
       </c>
       <c r="P25" t="n">
-        <v>135.4931009932421</v>
+        <v>135.8279264896987</v>
       </c>
       <c r="Q25" t="n">
-        <v>204.9690230107295</v>
+        <v>205.3038485071861</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999804412216174</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990326373696673</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999549416823288</v>
+        <v>0.9997225439196737</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998875560226672</v>
+        <v>0.9999502724974841</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999131074068787</v>
+        <v>0.9998745468058007</v>
       </c>
       <c r="G26" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.825726108892256e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0009029905531037037</v>
       </c>
       <c r="I26" t="n">
-        <v>2.407880034020574e-05</v>
+        <v>9.461105798061188e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001104127996947931</v>
+        <v>1.833978574836437e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>6.724847511723613e-05</v>
+        <v>5.647542186448813e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002646625203434823</v>
       </c>
       <c r="M26" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004272851634321341</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000014224566096</v>
       </c>
       <c r="O26" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004454755774416644</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4931009932421</v>
+        <v>135.8218953783561</v>
       </c>
       <c r="Q26" t="n">
-        <v>204.9690230107295</v>
+        <v>205.2978173958435</v>
       </c>
     </row>
   </sheetData>
